--- a/biology/Zoologie/Cornitibia_simplicithorax/Cornitibia_simplicithorax.xlsx
+++ b/biology/Zoologie/Cornitibia_simplicithorax/Cornitibia_simplicithorax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cornitibia simplicithorax, unique représentant du genre Cornitibia, est une espèce d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cornitibia simplicithorax, unique représentant du genre Cornitibia, est une espèce d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Népal[1]. Elle se rencontre dans le district d'Ilam[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Népal. Elle se rencontre dans le district d'Ilam.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,93 mm[3].
-Les mâles décrits par Lin, Lopardo et Uhl en 2022 mesurent 2,12 mm et 1,99 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,93 mm.
+Les mâles décrits par Lin, Lopardo et Uhl en 2022 mesurent 2,12 mm et 1,99 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Oedothorax simplicithorax par Tanasevitch en 1998. Elle est placée dans le genre Cornitibia par Lin, Lopardo et Uhl en 2022[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Oedothorax simplicithorax par Tanasevitch en 1998. Elle est placée dans le genre Cornitibia par Lin, Lopardo et Uhl en 2022.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tanasevitch, 1998 : « New Oedothorax Bertkau, 1883, from Nepal (Arachnida, Araneae, Linyphiidae). » Bonner Zoologische Beiträge, vol. 47, no 3/4, p. 429-441.
 Lin, Lopardo &amp; Uhl, 2022 : « Evolution of nuptial-gift-related male prosomal structures: taxonomic revision and cladistic analysis of the genus Oedothorax (Araneae: Linyphiidae: Erigoninae) ». Zoological Journal of the Linnean Society, vol. 195, no 2, p. 417-584.</t>
